--- a/po_analysis_by_asin/B0BRR3QYP1_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRR3QYP1_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,15 +468,15 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45095.99999999999</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45109.99999999999</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>16</v>
@@ -484,15 +484,15 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -500,18 +500,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45137.99999999999</v>
-      </c>
-      <c r="B9" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -558,7 +550,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -566,7 +558,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BRR3QYP1_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRR3QYP1_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -533,7 +534,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -559,6 +560,257 @@
       </c>
       <c r="B4" t="n">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>110</v>
+      </c>
+      <c r="C2" t="n">
+        <v>48.18827133841597</v>
+      </c>
+      <c r="D2" t="n">
+        <v>176.2879155029086</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>107</v>
+      </c>
+      <c r="C3" t="n">
+        <v>39.98398044203599</v>
+      </c>
+      <c r="D3" t="n">
+        <v>173.1723436414674</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-49.95771586214815</v>
+      </c>
+      <c r="D4" t="n">
+        <v>82.9868003773275</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-49.02975269469693</v>
+      </c>
+      <c r="D5" t="n">
+        <v>83.12680227582335</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-55.88334866103106</v>
+      </c>
+      <c r="D6" t="n">
+        <v>75.29808248807737</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-61.5933558867499</v>
+      </c>
+      <c r="D7" t="n">
+        <v>72.46258431452709</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-63.31571478883333</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67.79087993288989</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-69.3811259720115</v>
+      </c>
+      <c r="D9" t="n">
+        <v>66.30880630135319</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-72.19636091253452</v>
+      </c>
+      <c r="D10" t="n">
+        <v>61.62718605499659</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-73.65387954735577</v>
+      </c>
+      <c r="D11" t="n">
+        <v>58.56190925668568</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-78.71891838069639</v>
+      </c>
+      <c r="D12" t="n">
+        <v>49.65431352457735</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-82.37879357075548</v>
+      </c>
+      <c r="D13" t="n">
+        <v>45.03974309085527</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-85.13591131300173</v>
+      </c>
+      <c r="D14" t="n">
+        <v>48.63448525600768</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-86.39147117286039</v>
+      </c>
+      <c r="D15" t="n">
+        <v>40.57049785338592</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-97.52211458493579</v>
+      </c>
+      <c r="D16" t="n">
+        <v>33.24509844909836</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BRR3QYP1_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRR3QYP1_po_data.xlsx
@@ -573,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,16 +592,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -610,12 +600,6 @@
       <c r="B2" t="n">
         <v>110</v>
       </c>
-      <c r="C2" t="n">
-        <v>48.18827133841597</v>
-      </c>
-      <c r="D2" t="n">
-        <v>176.2879155029086</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -624,12 +608,6 @@
       <c r="B3" t="n">
         <v>107</v>
       </c>
-      <c r="C3" t="n">
-        <v>39.98398044203599</v>
-      </c>
-      <c r="D3" t="n">
-        <v>173.1723436414674</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,12 +616,6 @@
       <c r="B4" t="n">
         <v>18</v>
       </c>
-      <c r="C4" t="n">
-        <v>-49.95771586214815</v>
-      </c>
-      <c r="D4" t="n">
-        <v>82.9868003773275</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -652,12 +624,6 @@
       <c r="B5" t="n">
         <v>15</v>
       </c>
-      <c r="C5" t="n">
-        <v>-49.02975269469693</v>
-      </c>
-      <c r="D5" t="n">
-        <v>83.12680227582335</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -666,12 +632,6 @@
       <c r="B6" t="n">
         <v>11</v>
       </c>
-      <c r="C6" t="n">
-        <v>-55.88334866103106</v>
-      </c>
-      <c r="D6" t="n">
-        <v>75.29808248807737</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -680,12 +640,6 @@
       <c r="B7" t="n">
         <v>7</v>
       </c>
-      <c r="C7" t="n">
-        <v>-61.5933558867499</v>
-      </c>
-      <c r="D7" t="n">
-        <v>72.46258431452709</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -694,12 +648,6 @@
       <c r="B8" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
-        <v>-63.31571478883333</v>
-      </c>
-      <c r="D8" t="n">
-        <v>67.79087993288989</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -708,12 +656,6 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>-69.3811259720115</v>
-      </c>
-      <c r="D9" t="n">
-        <v>66.30880630135319</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -722,12 +664,6 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
-        <v>-72.19636091253452</v>
-      </c>
-      <c r="D10" t="n">
-        <v>61.62718605499659</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -736,12 +672,6 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>-73.65387954735577</v>
-      </c>
-      <c r="D11" t="n">
-        <v>58.56190925668568</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -750,12 +680,6 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>-78.71891838069639</v>
-      </c>
-      <c r="D12" t="n">
-        <v>49.65431352457735</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -764,12 +688,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>-82.37879357075548</v>
-      </c>
-      <c r="D13" t="n">
-        <v>45.03974309085527</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -778,12 +696,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>-85.13591131300173</v>
-      </c>
-      <c r="D14" t="n">
-        <v>48.63448525600768</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -792,12 +704,6 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>-86.39147117286039</v>
-      </c>
-      <c r="D15" t="n">
-        <v>40.57049785338592</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -805,12 +711,6 @@
       </c>
       <c r="B16" t="n">
         <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-97.52211458493579</v>
-      </c>
-      <c r="D16" t="n">
-        <v>33.24509844909836</v>
       </c>
     </row>
   </sheetData>
